--- a/results/Tables/2.Temperate sp highest germination period.xlsx
+++ b/results/Tables/2.Temperate sp highest germination period.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/movealong/results/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2BFC3A38-981D-4A14-BBA1-60DFC0530A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{339C4328-6C82-4017-8F4D-7D9E17CA7EE2}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{2BFC3A38-981D-4A14-BBA1-60DFC0530A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878E9338-4538-476E-88AC-FC80EE12128A}"/>
   <bookViews>
-    <workbookView xWindow="-23175" yWindow="0" windowWidth="13110" windowHeight="14805" xr2:uid="{49CE1CF6-731E-4F0D-B6A3-7823C18BDD5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49CE1CF6-731E-4F0D-B6A3-7823C18BDD5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tem" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>Species</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Silene acaulis</t>
+  </si>
+  <si>
+    <t>Delay time to 50% germ (days)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -371,6 +377,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,10 +683,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E35"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +694,10 @@
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -699,10 +709,13 @@
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
@@ -712,8 +725,9 @@
         <v>5</v>
       </c>
       <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -724,11 +738,14 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5">
         <v>-0.63234170000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -741,11 +758,14 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="5">
         <v>12.15582</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -758,11 +778,14 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5">
         <v>69.102739999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -776,10 +799,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="5">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
         <v>30.777899999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -793,10 +819,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="5">
+        <v>39.801388888888994</v>
+      </c>
+      <c r="F7" s="5">
         <v>30.845549999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -810,10 +839,13 @@
         <v>13</v>
       </c>
       <c r="E8" s="5">
+        <v>38.043102073364992</v>
+      </c>
+      <c r="F8" s="5">
         <v>38.153109999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -827,10 +859,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="5">
+        <v>17.501092657343008</v>
+      </c>
+      <c r="F9" s="5">
         <v>11.870900000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -844,10 +879,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="5">
+        <v>41.892647058824025</v>
+      </c>
+      <c r="F10" s="5">
         <v>43.796329999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -860,11 +898,14 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="5">
         <v>7.7578389999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -878,10 +919,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="5">
+        <v>107.739583333333</v>
+      </c>
+      <c r="F12" s="5">
         <v>83.157409999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -892,9 +936,12 @@
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>-239.5</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -907,11 +954,14 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5">
         <v>1.2084980000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -925,10 +975,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="5">
+        <v>51.553265668154978</v>
+      </c>
+      <c r="F15" s="5">
         <v>75.370099999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -941,11 +994,14 @@
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5">
         <v>29.819759999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -959,10 +1015,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="5">
+        <v>1.4401041666666003</v>
+      </c>
+      <c r="F17" s="5">
         <v>-32.509419999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -976,10 +1035,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="5">
+        <v>2.0187500000000114</v>
+      </c>
+      <c r="F18" s="5">
         <v>23.03575</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -993,10 +1055,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="5">
+        <v>302.11065423976595</v>
+      </c>
+      <c r="F19" s="5">
         <v>183.4111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1010,10 +1075,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="5">
+        <v>46.041666666667027</v>
+      </c>
+      <c r="F20" s="5">
         <v>14.02195</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1027,10 +1095,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="5">
+        <v>110.916666666667</v>
+      </c>
+      <c r="F21" s="5">
         <v>94.146439999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1044,10 +1115,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="5">
+        <v>17.894845085470099</v>
+      </c>
+      <c r="F22" s="5">
         <v>54.54562</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1060,11 +1134,14 @@
       <c r="D23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5">
         <v>97.170490000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1077,11 +1154,14 @@
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5">
         <v>112.3931</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1095,10 +1175,13 @@
         <v>12</v>
       </c>
       <c r="E25" s="5">
+        <v>45.78333333333299</v>
+      </c>
+      <c r="F25" s="5">
         <v>21.053730000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1111,11 +1194,14 @@
       <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5">
         <v>-11.422639999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -1129,10 +1215,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="5">
+        <v>58.515758547008005</v>
+      </c>
+      <c r="F27" s="5">
         <v>82.974209999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -1143,11 +1232,14 @@
         <v>7</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5">
         <v>24.668749999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1161,10 +1253,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="5">
+        <v>265.06246565934072</v>
+      </c>
+      <c r="F29" s="5">
         <v>195.16929999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -1178,10 +1273,13 @@
         <v>13</v>
       </c>
       <c r="E30" s="5">
+        <v>61.502252700321975</v>
+      </c>
+      <c r="F30" s="5">
         <v>84.829350000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -1194,11 +1292,14 @@
       <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="5">
         <v>-1.361059</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
@@ -1212,10 +1313,13 @@
         <v>13</v>
       </c>
       <c r="E32" s="5">
+        <v>170.35584935897438</v>
+      </c>
+      <c r="F32" s="5">
         <v>146.8434</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
@@ -1229,10 +1333,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="5">
+        <v>-15.916666666667027</v>
+      </c>
+      <c r="F33" s="5">
         <v>17.534929999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -1246,10 +1353,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="5">
+        <v>44.920833333332979</v>
+      </c>
+      <c r="F34" s="5">
         <v>56.58296</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -1263,15 +1373,19 @@
         <v>13</v>
       </c>
       <c r="E35" s="5">
+        <v>153.20126902734796</v>
+      </c>
+      <c r="F35" s="5">
         <v>151.82660000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
